--- a/0912430_0912431_0912463_0912469.xlsx
+++ b/0912430_0912431_0912463_0912469.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19440" windowHeight="9012"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19440" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -103,9 +103,6 @@
     <t>tipuder@gmail.com</t>
   </si>
   <si>
-    <t>truongtien.2509@gmail.com</t>
-  </si>
-  <si>
     <t>hathao298@gmail.com</t>
   </si>
   <si>
@@ -125,13 +122,16 @@
   </si>
   <si>
     <t>01254.747.747</t>
+  </si>
+  <si>
+    <t>truongtien.2505@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +340,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -351,9 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -446,7 +446,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -481,7 +480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,83 +655,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -758,76 +756,76 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12"/>
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -842,18 +840,18 @@
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="13"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
@@ -878,24 +876,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0912430_0912431_0912463_0912469.xlsx
+++ b/0912430_0912431_0912463_0912469.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19440" windowHeight="9015"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15576" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +446,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -480,6 +481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,26 +657,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -687,7 +689,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -698,7 +700,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -709,7 +711,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -720,7 +722,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -731,7 +733,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -756,7 +758,7 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -779,7 +781,7 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -800,7 +802,7 @@
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -821,7 +823,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -844,7 +846,7 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -876,24 +878,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
